--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3320.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3320.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.098298846070223</v>
+        <v>1.81788957118988</v>
       </c>
       <c r="B1">
-        <v>1.349002496732854</v>
+        <v>4.539745330810547</v>
       </c>
       <c r="C1">
-        <v>1.87697917196477</v>
+        <v>4.017266273498535</v>
       </c>
       <c r="D1">
-        <v>5.909136101036474</v>
+        <v>0.9045870900154114</v>
       </c>
       <c r="E1">
-        <v>5.024072045520994</v>
+        <v>0.4760756194591522</v>
       </c>
     </row>
   </sheetData>
